--- a/Biblioteca de Trabajo/Documentación/G1_Historia_Usuario_V5.xlsx
+++ b/Biblioteca de Trabajo/Documentación/G1_Historia_Usuario_V5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Historial de versionamiento" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Historia de revisión" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Historia de Usuario" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Requisitos Funcionales" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Requisitos No Funcionales" sheetId="4" r:id="rId7"/>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
   <si>
-    <t>Historial de versionamiento</t>
+    <t>Historia de revisión</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -164,7 +164,7 @@
     <t>Terminado</t>
   </si>
   <si>
-    <t>Se registra el producto agregado con un mensaje de confirmacion de "Producto agregado exitosamente".</t>
+    <t>Se registra el producto agregado con un mensaje de confirmación de "Producto agregado exitosamente".</t>
   </si>
   <si>
     <t>-</t>
@@ -224,16 +224,16 @@
     <t>REQ004</t>
   </si>
   <si>
-    <t>El Ingreso de Salida de Productos no ha sido constante lo que no permite saber el valor real de ganancia ni saber de forma práctica y automática el stock de los productos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El programa deberá mostrar la disponibilidad del producto en dependencia a la busqueda </t>
+    <t>El reporte de la Salida de Productos no ha sido constante lo que no permite saber el valor real de ganancia ni saber de forma práctica y automática el stock de los productos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El programa deberá mostrar la disponibilidad del producto en dependencia a la búsqueda </t>
   </si>
   <si>
     <t>Facilitar la busqueda de los productos y su disponibilidad en tiempo real.</t>
   </si>
   <si>
-    <t>Vincular la lista ID de los productos disponibles. Crear Funcion de salida de productos. Actualizar el listado de disponibilidad.</t>
+    <t>Vincular la lista de los productos disponibles. Crear Funcion de salida de productos. Actualizar el listado de disponibilidad.</t>
   </si>
   <si>
     <t>Benjamin Robalino</t>
@@ -260,7 +260,7 @@
     <t>Se selecciona la opción de eliminar producto y se digita el código único de cada producto para su posterior eliminación con doble confirmación.</t>
   </si>
   <si>
-    <t>Se registra la eliminación del producto con una doble confirmacion de "¿Está seguro que desea eliminar este producto?" y si es afirmativo aparece el mensaje "Producto eliminado exitosamente".</t>
+    <t>Se registra la eliminación del producto con una doble confirmacioón de "¿Está seguro que desea eliminar este producto?" y si es afirmativo aparece el mensaje "Producto eliminado exitosamente".</t>
   </si>
   <si>
     <t>Eliminar productos</t>
@@ -272,7 +272,7 @@
     <t>Los reportes de inventario se hacen semanalmente y no siempre son confiables porque la información se pierde.</t>
   </si>
   <si>
-    <t>El programa deberá guardar el reporte de cada producto modificado por el ingreso de sesion de cada usuario.</t>
+    <t>El programa deberá guardar el reporte de cada producto modificado .</t>
   </si>
   <si>
     <t>Para verificar la disponibilidad y con ello tomar decisiones respecto a los productos y la compra de insumos.</t>
@@ -725,7 +725,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1786,7 +1786,7 @@
       <c r="D22" s="44"/>
       <c r="E22" s="43" t="str">
         <f>VLOOKUP(C10,'Requisitos Funcionales'!B5:O11,12,0)</f>
-        <v>Se registra el producto agregado con un mensaje de confirmacion de "Producto agregado exitosamente".</v>
+        <v>Se registra el producto agregado con un mensaje de confirmación de "Producto agregado exitosamente".</v>
       </c>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
